--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cd34-Sell.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cd34-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>249.144208176637</v>
+        <v>250.7027893333334</v>
       </c>
       <c r="H2">
-        <v>249.144208176637</v>
+        <v>752.108368</v>
       </c>
       <c r="I2">
-        <v>0.8118679759891599</v>
+        <v>0.8058600807320524</v>
       </c>
       <c r="J2">
-        <v>0.8118679759891599</v>
+        <v>0.8058600807320525</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.197013153439431</v>
+        <v>0.2056386666666667</v>
       </c>
       <c r="N2">
-        <v>0.197013153439431</v>
+        <v>0.616916</v>
       </c>
       <c r="O2">
-        <v>0.06471992747133357</v>
+        <v>0.004186411275012692</v>
       </c>
       <c r="P2">
-        <v>0.06471992747133357</v>
+        <v>0.004186411275012692</v>
       </c>
       <c r="Q2">
-        <v>49.08468611404932</v>
+        <v>51.5541873281209</v>
       </c>
       <c r="R2">
-        <v>49.08468611404932</v>
+        <v>463.987685953088</v>
       </c>
       <c r="S2">
-        <v>0.05254403652231681</v>
+        <v>0.003373661728059303</v>
       </c>
       <c r="T2">
-        <v>0.05254403652231681</v>
+        <v>0.003373661728059303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>249.144208176637</v>
+        <v>250.7027893333334</v>
       </c>
       <c r="H3">
-        <v>249.144208176637</v>
+        <v>752.108368</v>
       </c>
       <c r="I3">
-        <v>0.8118679759891599</v>
+        <v>0.8058600807320524</v>
       </c>
       <c r="J3">
-        <v>0.8118679759891599</v>
+        <v>0.8058600807320525</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.84707482899371</v>
+        <v>2.974950666666667</v>
       </c>
       <c r="N3">
-        <v>2.84707482899371</v>
+        <v>8.924852</v>
       </c>
       <c r="O3">
-        <v>0.9352800725286664</v>
+        <v>0.06056432486857137</v>
       </c>
       <c r="P3">
-        <v>0.9352800725286664</v>
+        <v>0.06056432486857137</v>
       </c>
       <c r="Q3">
-        <v>709.332203889272</v>
+        <v>745.8284302623929</v>
       </c>
       <c r="R3">
-        <v>709.332203889272</v>
+        <v>6712.455872361536</v>
       </c>
       <c r="S3">
-        <v>0.7593239394668431</v>
+        <v>0.04880637172806918</v>
       </c>
       <c r="T3">
-        <v>0.7593239394668431</v>
+        <v>0.04880637172806918</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.0741149685622</v>
+        <v>250.7027893333334</v>
       </c>
       <c r="H4">
-        <v>55.0741149685622</v>
+        <v>752.108368</v>
       </c>
       <c r="I4">
-        <v>0.1794659830792477</v>
+        <v>0.8058600807320524</v>
       </c>
       <c r="J4">
-        <v>0.1794659830792477</v>
+        <v>0.8058600807320525</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.197013153439431</v>
+        <v>45.939923</v>
       </c>
       <c r="N4">
-        <v>0.197013153439431</v>
+        <v>137.819769</v>
       </c>
       <c r="O4">
-        <v>0.06471992747133357</v>
+        <v>0.935249263856416</v>
       </c>
       <c r="P4">
-        <v>0.06471992747133357</v>
+        <v>0.935249263856416</v>
       </c>
       <c r="Q4">
-        <v>10.85032506284221</v>
+        <v>11517.26683785855</v>
       </c>
       <c r="R4">
-        <v>10.85032506284221</v>
+        <v>103655.401540727</v>
       </c>
       <c r="S4">
-        <v>0.01161502540846049</v>
+        <v>0.753680047275924</v>
       </c>
       <c r="T4">
-        <v>0.01161502540846049</v>
+        <v>0.7536800472759241</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,309 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.0741149685622</v>
+        <v>56.03169766666667</v>
       </c>
       <c r="H5">
-        <v>55.0741149685622</v>
+        <v>168.095093</v>
       </c>
       <c r="I5">
-        <v>0.1794659830792477</v>
+        <v>0.1801085202334058</v>
       </c>
       <c r="J5">
-        <v>0.1794659830792477</v>
+        <v>0.1801085202334059</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.84707482899371</v>
+        <v>0.2056386666666667</v>
       </c>
       <c r="N5">
-        <v>2.84707482899371</v>
+        <v>0.616916</v>
       </c>
       <c r="O5">
-        <v>0.9352800725286664</v>
+        <v>0.004186411275012692</v>
       </c>
       <c r="P5">
-        <v>0.9352800725286664</v>
+        <v>0.004186411275012692</v>
       </c>
       <c r="Q5">
-        <v>156.8001264560991</v>
+        <v>11.52228359924311</v>
       </c>
       <c r="R5">
-        <v>156.8001264560991</v>
+        <v>103.700552393188</v>
       </c>
       <c r="S5">
-        <v>0.1678509576707872</v>
+        <v>0.0007540083398309818</v>
       </c>
       <c r="T5">
-        <v>0.1678509576707872</v>
+        <v>0.0007540083398309821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.342992568415489</v>
+        <v>56.03169766666667</v>
       </c>
       <c r="H6">
-        <v>0.342992568415489</v>
+        <v>168.095093</v>
       </c>
       <c r="I6">
-        <v>0.001117684751079511</v>
+        <v>0.1801085202334058</v>
       </c>
       <c r="J6">
-        <v>0.001117684751079511</v>
+        <v>0.1801085202334059</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.197013153439431</v>
+        <v>2.974950666666667</v>
       </c>
       <c r="N6">
-        <v>0.197013153439431</v>
+        <v>8.924852</v>
       </c>
       <c r="O6">
-        <v>0.06471992747133357</v>
+        <v>0.06056432486857137</v>
       </c>
       <c r="P6">
-        <v>0.06471992747133357</v>
+        <v>0.06056432486857137</v>
       </c>
       <c r="Q6">
-        <v>0.06757404750982526</v>
+        <v>166.6915363279151</v>
       </c>
       <c r="R6">
-        <v>0.06757404750982526</v>
+        <v>1500.223826951236</v>
       </c>
       <c r="S6">
-        <v>7.233647602568149E-05</v>
+        <v>0.01090815093101365</v>
       </c>
       <c r="T6">
-        <v>7.233647602568149E-05</v>
+        <v>0.01090815093101366</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.342992568415489</v>
+        <v>56.03169766666667</v>
       </c>
       <c r="H7">
-        <v>0.342992568415489</v>
+        <v>168.095093</v>
       </c>
       <c r="I7">
-        <v>0.001117684751079511</v>
+        <v>0.1801085202334058</v>
       </c>
       <c r="J7">
-        <v>0.001117684751079511</v>
+        <v>0.1801085202334059</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.84707482899371</v>
+        <v>45.939923</v>
       </c>
       <c r="N7">
-        <v>2.84707482899371</v>
+        <v>137.819769</v>
       </c>
       <c r="O7">
-        <v>0.9352800725286664</v>
+        <v>0.935249263856416</v>
       </c>
       <c r="P7">
-        <v>0.9352800725286664</v>
+        <v>0.935249263856416</v>
       </c>
       <c r="Q7">
-        <v>0.9765255080676416</v>
+        <v>2574.091876365947</v>
       </c>
       <c r="R7">
-        <v>0.9765255080676416</v>
+        <v>23166.82688729352</v>
       </c>
       <c r="S7">
-        <v>0.00104534827505383</v>
+        <v>0.1684463609625612</v>
       </c>
       <c r="T7">
-        <v>0.00104534827505383</v>
+        <v>0.1684463609625613</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.31642247169294</v>
+        <v>0.3995106666666667</v>
       </c>
       <c r="H8">
-        <v>2.31642247169294</v>
+        <v>1.198532</v>
       </c>
       <c r="I8">
-        <v>0.007548356180513076</v>
+        <v>0.001284188735791261</v>
       </c>
       <c r="J8">
-        <v>0.007548356180513076</v>
+        <v>0.001284188735791261</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.197013153439431</v>
+        <v>0.2056386666666667</v>
       </c>
       <c r="N8">
-        <v>0.197013153439431</v>
+        <v>0.616916</v>
       </c>
       <c r="O8">
-        <v>0.06471992747133357</v>
+        <v>0.004186411275012692</v>
       </c>
       <c r="P8">
-        <v>0.06471992747133357</v>
+        <v>0.004186411275012692</v>
       </c>
       <c r="Q8">
-        <v>0.4563656958461872</v>
+        <v>0.08215484081244445</v>
       </c>
       <c r="R8">
-        <v>0.4563656958461872</v>
+        <v>0.7393935673120001</v>
       </c>
       <c r="S8">
-        <v>0.0004885290645305988</v>
+        <v>5.376142202760829E-06</v>
       </c>
       <c r="T8">
-        <v>0.0004885290645305988</v>
+        <v>5.37614220276083E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.31642247169294</v>
+        <v>0.3995106666666667</v>
       </c>
       <c r="H9">
-        <v>2.31642247169294</v>
+        <v>1.198532</v>
       </c>
       <c r="I9">
-        <v>0.007548356180513076</v>
+        <v>0.001284188735791261</v>
       </c>
       <c r="J9">
-        <v>0.007548356180513076</v>
+        <v>0.001284188735791261</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.84707482899371</v>
+        <v>2.974950666666667</v>
       </c>
       <c r="N9">
-        <v>2.84707482899371</v>
+        <v>8.924852</v>
       </c>
       <c r="O9">
-        <v>0.9352800725286664</v>
+        <v>0.06056432486857137</v>
       </c>
       <c r="P9">
-        <v>0.9352800725286664</v>
+        <v>0.06056432486857137</v>
       </c>
       <c r="Q9">
-        <v>6.595028112472364</v>
+        <v>1.188524524140445</v>
       </c>
       <c r="R9">
-        <v>6.595028112472364</v>
+        <v>10.696720717264</v>
       </c>
       <c r="S9">
-        <v>0.007059827115982477</v>
+        <v>7.777602378702188E-05</v>
       </c>
       <c r="T9">
-        <v>0.007059827115982477</v>
+        <v>7.777602378702189E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3995106666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.198532</v>
+      </c>
+      <c r="I10">
+        <v>0.001284188735791261</v>
+      </c>
+      <c r="J10">
+        <v>0.001284188735791261</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>45.939923</v>
+      </c>
+      <c r="N10">
+        <v>137.819769</v>
+      </c>
+      <c r="O10">
+        <v>0.935249263856416</v>
+      </c>
+      <c r="P10">
+        <v>0.935249263856416</v>
+      </c>
+      <c r="Q10">
+        <v>18.35348926434534</v>
+      </c>
+      <c r="R10">
+        <v>165.181403379108</v>
+      </c>
+      <c r="S10">
+        <v>0.001201036569801478</v>
+      </c>
+      <c r="T10">
+        <v>0.001201036569801478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1167283333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.350185</v>
+      </c>
+      <c r="I11">
+        <v>0.0003752120364271146</v>
+      </c>
+      <c r="J11">
+        <v>0.0003752120364271147</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2056386666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.616916</v>
+      </c>
+      <c r="O11">
+        <v>0.004186411275012692</v>
+      </c>
+      <c r="P11">
+        <v>0.004186411275012692</v>
+      </c>
+      <c r="Q11">
+        <v>0.02400385882888889</v>
+      </c>
+      <c r="R11">
+        <v>0.21603472946</v>
+      </c>
+      <c r="S11">
+        <v>1.570791899818946E-06</v>
+      </c>
+      <c r="T11">
+        <v>1.570791899818946E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1167283333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.350185</v>
+      </c>
+      <c r="I12">
+        <v>0.0003752120364271146</v>
+      </c>
+      <c r="J12">
+        <v>0.0003752120364271147</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.974950666666667</v>
+      </c>
+      <c r="N12">
+        <v>8.924852</v>
+      </c>
+      <c r="O12">
+        <v>0.06056432486857137</v>
+      </c>
+      <c r="P12">
+        <v>0.06056432486857137</v>
+      </c>
+      <c r="Q12">
+        <v>0.3472610330688889</v>
+      </c>
+      <c r="R12">
+        <v>3.12534929762</v>
+      </c>
+      <c r="S12">
+        <v>2.272446366877001E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.272446366877001E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1167283333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.350185</v>
+      </c>
+      <c r="I13">
+        <v>0.0003752120364271146</v>
+      </c>
+      <c r="J13">
+        <v>0.0003752120364271147</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>45.939923</v>
+      </c>
+      <c r="N13">
+        <v>137.819769</v>
+      </c>
+      <c r="O13">
+        <v>0.935249263856416</v>
+      </c>
+      <c r="P13">
+        <v>0.935249263856416</v>
+      </c>
+      <c r="Q13">
+        <v>5.362490645251667</v>
+      </c>
+      <c r="R13">
+        <v>48.26241580726501</v>
+      </c>
+      <c r="S13">
+        <v>0.0003509167808585257</v>
+      </c>
+      <c r="T13">
+        <v>0.0003509167808585258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.848924333333333</v>
+      </c>
+      <c r="H14">
+        <v>11.546773</v>
+      </c>
+      <c r="I14">
+        <v>0.01237199826232313</v>
+      </c>
+      <c r="J14">
+        <v>0.01237199826232313</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2056386666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.616916</v>
+      </c>
+      <c r="O14">
+        <v>0.004186411275012692</v>
+      </c>
+      <c r="P14">
+        <v>0.004186411275012692</v>
+      </c>
+      <c r="Q14">
+        <v>0.7914876680075555</v>
+      </c>
+      <c r="R14">
+        <v>7.123389012068</v>
+      </c>
+      <c r="S14">
+        <v>5.179427301982697E-05</v>
+      </c>
+      <c r="T14">
+        <v>5.179427301982699E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.848924333333333</v>
+      </c>
+      <c r="H15">
+        <v>11.546773</v>
+      </c>
+      <c r="I15">
+        <v>0.01237199826232313</v>
+      </c>
+      <c r="J15">
+        <v>0.01237199826232313</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.974950666666667</v>
+      </c>
+      <c r="N15">
+        <v>8.924852</v>
+      </c>
+      <c r="O15">
+        <v>0.06056432486857137</v>
+      </c>
+      <c r="P15">
+        <v>0.06056432486857137</v>
+      </c>
+      <c r="Q15">
+        <v>11.45036001139955</v>
+      </c>
+      <c r="R15">
+        <v>103.053240102596</v>
+      </c>
+      <c r="S15">
+        <v>0.0007493017220327382</v>
+      </c>
+      <c r="T15">
+        <v>0.0007493017220327385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.848924333333333</v>
+      </c>
+      <c r="H16">
+        <v>11.546773</v>
+      </c>
+      <c r="I16">
+        <v>0.01237199826232313</v>
+      </c>
+      <c r="J16">
+        <v>0.01237199826232313</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>45.939923</v>
+      </c>
+      <c r="N16">
+        <v>137.819769</v>
+      </c>
+      <c r="O16">
+        <v>0.935249263856416</v>
+      </c>
+      <c r="P16">
+        <v>0.935249263856416</v>
+      </c>
+      <c r="Q16">
+        <v>176.8192875061597</v>
+      </c>
+      <c r="R16">
+        <v>1591.373587555437</v>
+      </c>
+      <c r="S16">
+        <v>0.01157090226727056</v>
+      </c>
+      <c r="T16">
+        <v>0.01157090226727056</v>
       </c>
     </row>
   </sheetData>
